--- a/111.xlsx
+++ b/111.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -24,12 +30,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,18 +44,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -61,6 +149,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -70,51 +159,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,60 +176,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,187 +197,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,15 +388,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,6 +407,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -427,6 +450,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,39 +480,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -492,148 +491,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -958,17 +957,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/111.xlsx
+++ b/111.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>a</t>
   </si>
@@ -24,16 +24,19 @@
   <si>
     <t>c</t>
   </si>
+  <si>
+    <t>d</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -44,6 +47,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -51,8 +77,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -65,18 +145,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,24 +168,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,76 +185,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,187 +200,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,15 +395,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -421,11 +439,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,22 +458,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,17 +472,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,10 +497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -506,133 +509,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -957,15 +960,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,6 +978,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/111.xlsx
+++ b/111.xlsx
@@ -22,7 +22,7 @@
     <t>b</t>
   </si>
   <si>
-    <t>c</t>
+    <t>cddd</t>
   </si>
   <si>
     <t>d</t>
@@ -34,8 +34,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -47,11 +47,107 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -63,15 +159,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,113 +169,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,181 +206,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +391,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -409,17 +433,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,35 +457,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,13 +477,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,10 +497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,133 +509,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -963,7 +963,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
